--- a/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
+++ b/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="B19" s="65">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B42" s="65">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
